--- a/KeePassKeyFileGenerator(Excel).xlsx
+++ b/KeePassKeyFileGenerator(Excel).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabeweb\Documents\Personal\Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2753A-322D-49D8-BECB-1769CEC278AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0EC06D-B536-44D0-948B-8B72831C2B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>KeePass Simple Key File Generator</t>
   </si>
@@ -94,30 +94,6 @@
   </si>
   <si>
     <t>HASH</t>
-  </si>
-  <si>
-    <t>CHAIN 1</t>
-  </si>
-  <si>
-    <t>CHAIN 2</t>
-  </si>
-  <si>
-    <t>CHAIN 3</t>
-  </si>
-  <si>
-    <t>CHAIN 4</t>
-  </si>
-  <si>
-    <t>CHAIN 5</t>
-  </si>
-  <si>
-    <t>CHAIN 6</t>
-  </si>
-  <si>
-    <t>CHAIN 7</t>
-  </si>
-  <si>
-    <t>CHAIN 8</t>
   </si>
   <si>
     <t>NUMBERS</t>
@@ -156,23 +132,7 @@
     <t>@gabeweb</t>
   </si>
   <si>
-    <t>gabeweb.neocities.org</t>
-  </si>
-  <si>
-    <t>Donations and incentives:</t>
-  </si>
-  <si>
-    <t>keybase.io/gabeweb</t>
-  </si>
-  <si>
-    <t>paypal.me/gabeweb</t>
-  </si>
-  <si>
     <t>Some rights reserved</t>
-  </si>
-  <si>
-    <t>©2019 - 2021
-GABE PÉREZ / GABEweb / GABElabs</t>
   </si>
   <si>
     <r>
@@ -253,7 +213,35 @@
     </r>
   </si>
   <si>
-    <t>coindrop.to/gabeweb</t>
+    <t>©2019 - 2025
+GABE PÉREZ / GABEweb / GABElabs</t>
+  </si>
+  <si>
+    <t>gabeweb.github.io</t>
+  </si>
+  <si>
+    <t>STRING 1</t>
+  </si>
+  <si>
+    <t>STRING 2</t>
+  </si>
+  <si>
+    <t>STRING 3</t>
+  </si>
+  <si>
+    <t>STRING 4</t>
+  </si>
+  <si>
+    <t>STRING 5</t>
+  </si>
+  <si>
+    <t>STRING 6</t>
+  </si>
+  <si>
+    <t>STRING 7</t>
+  </si>
+  <si>
+    <t>STRING 8</t>
   </si>
 </sst>
 </file>
@@ -263,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot;-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -490,13 +478,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF339966"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -511,19 +492,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF5AE764"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -636,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -797,8 +775,43 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF404040"/>
+        <color rgb="FF8B9498"/>
       </left>
+      <right style="thin">
+        <color rgb="FF8B9498"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF8B9498"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3A3838"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3A3838"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3A3838"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3A3838"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3A3838"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF3A3838"/>
       </right>
@@ -812,14 +825,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF8B9498"/>
+        <color rgb="FF404040"/>
       </left>
-      <right style="thin">
-        <color rgb="FF8B9498"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3A3838"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF8B9498"/>
+        <color rgb="FF3A3838"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,7 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -910,7 +923,7 @@
     <xf numFmtId="0" fontId="26" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,37 +947,43 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="16" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="16" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="16" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="16" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1693,12 +1712,12 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>438116</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>314279</xdr:rowOff>
+      <xdr:rowOff>359271</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="896395" cy="548640"/>
+    <xdr:ext cx="896395" cy="458655"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="gabe">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5405A7D0-9860-03CB-C8CD-87E734477547}"/>
@@ -1710,16 +1729,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153116" y="2914604"/>
-          <a:ext cx="896395" cy="548640"/>
+          <a:off x="6153116" y="2959596"/>
+          <a:ext cx="896395" cy="458655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1798,9 +1821,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1838,7 +1861,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1944,7 +1967,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2086,7 +2109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2118,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2159,24 +2182,24 @@
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="N8" s="34" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="N8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="str">
@@ -2196,36 +2219,36 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2379,39 +2402,39 @@
         )
     )
 )</f>
-        <v>24D3DE04</v>
+        <v>84697575</v>
       </c>
       <c r="E10" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CF01A680</v>
+        <v>8046500B</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>96C3215F</v>
+        <v>0EA13ED4</v>
       </c>
       <c r="G10" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>89DAEC0E</v>
+        <v>0E077C08</v>
       </c>
       <c r="H10" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F683A92E</v>
+        <v>5156B487</v>
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07938EF5</v>
+        <v>089621B2</v>
       </c>
       <c r="J10" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CCD52BC0</v>
+        <v>1FDA78EB</v>
       </c>
       <c r="K10" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F6E35014</v>
+        <v>99A06CB0</v>
       </c>
       <c r="L10" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FB7FCC97</v>
+        <v>EC9D03A7</v>
       </c>
       <c r="N10" s="10">
         <v>48</v>
@@ -2442,7 +2465,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" s="23">
         <f t="shared" ref="D11:L11" ca="1" si="2">LEN(D10)</f>
@@ -2509,7 +2532,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" s="24">
         <f t="shared" ref="D12:L12" ca="1" si="4">IFERROR(ROUND((D11*LOG(36,2)),2),"")</f>
@@ -2569,7 +2592,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D13" s="25">
         <f t="shared" ref="D13:L13" ca="1" si="5">D11*4.9231</f>
@@ -2629,38 +2652,20 @@
       </c>
       <c r="B14" s="7"/>
       <c r="D14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="35" t="str">
-        <f ca="1">_xlfn.CONCAT(
-    ,
-    E10,
-    " ",
-    F10,
-    " ",
-    G10,
-    " ",
-    H10,
-    "
-",
-    I10,
-    " ",
-    J10,
-    " ",
-    K10,
-    " ",
-    L10
-)</f>
-        <v>CF01A680 96C3215F 89DAEC0E F683A92E
-07938EF5 CCD52BC0 F6E35014 FB7FCC97</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="32" t="str">
+        <f ca="1">_xlfn.TEXTJOIN(" ", TRUE, E10, F10, G10, H10) &amp; CHAR(10) &amp; _xlfn.TEXTJOIN(" ", TRUE, I10, J10, K10, L10)</f>
+        <v>8046500B 0EA13ED4 0E077C08 5156B487
+089621B2 1FDA78EB 99A06CB0 EC9D03A7</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="N14" s="10">
         <v>52</v>
       </c>
@@ -2684,23 +2689,23 @@
         CHAR(34),
     "&gt;"
 )</f>
-        <v xml:space="preserve">        &lt;Data Hash="24D3DE04"&gt;</v>
+        <v xml:space="preserve">        &lt;Data Hash="84697575"&gt;</v>
       </c>
       <c r="B15" s="7"/>
       <c r="D15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="36">
+        <v>8</v>
+      </c>
+      <c r="E15" s="35">
         <f ca="1">SUM(E11:L11)</f>
         <v>64</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="N15" s="10">
         <v>53</v>
       </c>
@@ -2718,23 +2723,14 @@
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="str">
-        <f ca="1">_xlfn.CONCAT(
-    "            ",
-    E10,
-    " ",
-    F10,
-    " ",
-    G10,
-    " ",
-    H10
-)</f>
-        <v xml:space="preserve">            CF01A680 96C3215F 89DAEC0E F683A92E</v>
+        <f ca="1">"            " &amp; _xlfn.TEXTJOIN(" ", TRUE, E10, F10, G10, H10)</f>
+        <v xml:space="preserve">            8046500B 0EA13ED4 0E077C08 5156B487</v>
       </c>
       <c r="B16" s="7"/>
       <c r="D16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="36">
+        <v>9</v>
+      </c>
+      <c r="E16" s="35">
         <f ca="1">IFERROR(
     ROUND(
         E15 * LOG(36, 2),
@@ -2744,13 +2740,13 @@
 )</f>
         <v>330.88</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
       <c r="N16" s="10">
         <v>54</v>
       </c>
@@ -2761,25 +2757,14 @@
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="str">
-        <f ca="1">(
-    _xlfn.CONCAT(
-        "            ",
-        I10,
-        " ",
-        J10,
-        " ",
-        K10,
-        " ",
-        L10
-    )
-)</f>
-        <v xml:space="preserve">            07938EF5 CCD52BC0 F6E35014 FB7FCC97</v>
+        <f ca="1">"            " &amp; _xlfn.TEXTJOIN(" ", TRUE, I10, J10, K10, L10)</f>
+        <v xml:space="preserve">            089621B2 1FDA78EB 99A06CB0 EC9D03A7</v>
       </c>
       <c r="B17" s="7"/>
       <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="37">
+        <v>10</v>
+      </c>
+      <c r="E17" s="36">
         <f ca="1">E15*4</f>
         <v>256</v>
       </c>
@@ -2789,7 +2774,7 @@
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="38"/>
       <c r="N17" s="10">
         <v>55</v>
       </c>
@@ -2835,23 +2820,20 @@
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E17:L17"/>
+  <mergeCells count="2">
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="E16:L16"/>
   </mergeCells>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2867,15 +2849,15 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29.85" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="14.28515625" style="30" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="13" width="14.28515625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="30" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -2895,61 +2877,61 @@
     </row>
     <row r="2" spans="1:13" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="28"/>
-      <c r="D2" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="D2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="28"/>
-      <c r="D3" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="D3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="28"/>
-      <c r="D4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="D4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="28"/>
-      <c r="D5" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="D5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
     </row>
@@ -2989,12 +2971,12 @@
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="F8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -3020,44 +3002,24 @@
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="41"/>
+      <c r="E10" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="43"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
@@ -3065,12 +3027,12 @@
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="F12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -3082,12 +3044,12 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="F13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -3112,7 +3074,9 @@
       <c r="J19" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="10">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
@@ -3121,25 +3085,14 @@
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D5:K5"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="buymeacoffee.com/gabeweb" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C11:E11" r:id="rId4" display="coindrop.to/gabeweb" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3172,7 +3125,7 @@
         <f>1.5</f>
         <v>1.5</v>
       </c>
-      <c r="F1" s="32">
+      <c r="F1" s="31">
         <v>37623</v>
       </c>
     </row>
